--- a/biology/Botanique/Erithalis_fruticosa/Erithalis_fruticosa.xlsx
+++ b/biology/Botanique/Erithalis_fruticosa/Erithalis_fruticosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erithalis fruticosa est un arbuste de la famille des Rubiaceae originaire des Antilles.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chione vacciniifolia Griseb.
 Erithalis odorifera Jacquin (1763)</t>
@@ -542,7 +556,9 @@
           <t>Nom vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En Martinqueː Bois-chandelle noir.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbuste atteignant 2 à 3 mètres de haut et à l'écorce noire.
 Feuilles obovées, subcharnues, luisantes à l'intérieur.
@@ -607,7 +625,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En bordure de mer ou sur les mornes sec en bordure du littoral.
 </t>
@@ -638,9 +658,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Petites Antilles, Floride[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petites Antilles, Floride.
 </t>
         </is>
       </c>
